--- a/api_requests.xlsx
+++ b/api_requests.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tan\Lineus\Unistar Project\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unistars\unistars-docs\unistars-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CB373D-0317-4F43-BFCD-58B95BC3B25E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EDF009-8C16-400F-B2DF-78C7BD85D9BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,15 +503,9 @@
     <t>Tan</t>
   </si>
   <si>
-    <t>/api/admin/event-list/{catId}</t>
-  </si>
-  <si>
     <t>loadEventDetail</t>
   </si>
   <si>
-    <t>/api/admin/event-detail/{eventId}</t>
-  </si>
-  <si>
     <t>Event list json</t>
   </si>
   <si>
@@ -521,25 +515,16 @@
     <t>create a new event</t>
   </si>
   <si>
-    <t>/api/admin/event-create</t>
-  </si>
-  <si>
     <t>updateEvent</t>
   </si>
   <si>
     <t xml:space="preserve">update event </t>
   </si>
   <si>
-    <t>/api/admin/event-update</t>
-  </si>
-  <si>
     <t>deleteEvent</t>
   </si>
   <si>
     <t>delete a list event</t>
-  </si>
-  <si>
-    <t>/api/admin/event-delete</t>
   </si>
   <si>
     <t>event Id array</t>
@@ -573,15 +558,6 @@
 Information regarding this event) </t>
   </si>
   <si>
-    <t>/api/admin/applicant-list/{eventId}</t>
-  </si>
-  <si>
-    <t>/api/admin/applicant-detail/{applicantId}</t>
-  </si>
-  <si>
-    <t>/api/admin/applicant-update</t>
-  </si>
-  <si>
     <t>applicant object</t>
   </si>
   <si>
@@ -603,10 +579,34 @@
     <t>uploadPicture</t>
   </si>
   <si>
-    <t>/api/uploadPicture        (not sure)</t>
-  </si>
-  <si>
     <t>link or id</t>
+  </si>
+  <si>
+    <t>admin/api/event/list/{catId}</t>
+  </si>
+  <si>
+    <t>admin/api/event/detail/{eventId}</t>
+  </si>
+  <si>
+    <t>admin/api/event/create</t>
+  </si>
+  <si>
+    <t>admin/api/event/update</t>
+  </si>
+  <si>
+    <t>admin/api/event/delete</t>
+  </si>
+  <si>
+    <t>admin/api/uploadPicture        (not sure)</t>
+  </si>
+  <si>
+    <t>admin/api/event/list/{catId}/applicant/update</t>
+  </si>
+  <si>
+    <t>admin/api/event/list/{catId}/applicant/detail/{applicantId}</t>
+  </si>
+  <si>
+    <t>admin/api/event/list/{catId}/applicant/list/{eventId}</t>
   </si>
 </sst>
 </file>
@@ -674,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -692,6 +692,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -976,7 +979,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -985,7 +988,7 @@
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="32.140625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" customWidth="1"/>
+    <col min="5" max="5" width="57.42578125" customWidth="1"/>
     <col min="6" max="6" width="23.5703125" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
@@ -1047,7 +1050,7 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
@@ -1076,6 +1079,7 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
+      <c r="D4" s="8"/>
       <c r="E4" t="s">
         <v>16</v>
       </c>
@@ -1096,6 +1100,7 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
+      <c r="D5" s="8"/>
       <c r="E5" t="s">
         <v>21</v>
       </c>
@@ -1122,6 +1127,7 @@
       <c r="C6" t="s">
         <v>26</v>
       </c>
+      <c r="D6" s="8"/>
       <c r="E6" t="s">
         <v>23</v>
       </c>
@@ -1148,6 +1154,7 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
+      <c r="D7" s="8"/>
       <c r="E7" t="s">
         <v>28</v>
       </c>
@@ -1177,27 +1184,27 @@
         <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
         <v>37</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="B13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
         <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s">
         <v>37</v>
@@ -1208,22 +1215,22 @@
     </row>
     <row r="14" spans="1:11">
       <c r="B14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
         <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s">
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J14">
         <v>200</v>
@@ -1231,22 +1238,22 @@
     </row>
     <row r="15" spans="1:11">
       <c r="B15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
       </c>
       <c r="E15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" t="s">
         <v>70</v>
       </c>
-      <c r="G15" t="s">
-        <v>75</v>
-      </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J15">
         <v>200</v>
@@ -1254,22 +1261,22 @@
     </row>
     <row r="16" spans="1:11">
       <c r="B16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
         <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s">
         <v>7</v>
       </c>
       <c r="I16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J16">
         <v>200</v>
@@ -1277,84 +1284,84 @@
     </row>
     <row r="17" spans="1:10">
       <c r="B17" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
         <v>92</v>
       </c>
-      <c r="E17" t="s">
-        <v>94</v>
-      </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="B21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
         <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="G21" t="s">
         <v>37</v>
       </c>
       <c r="I21" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="B22" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
         <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G22" t="s">
         <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30">
       <c r="B23" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
         <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H23" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J23">
         <v>200</v>
@@ -1391,6 +1398,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:D7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/api_requests.xlsx
+++ b/api_requests.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unistars\unistars-docs\unistars-docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EDF009-8C16-400F-B2DF-78C7BD85D9BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="API usage" sheetId="1" r:id="rId1"/>
     <sheet name="Appendix" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="121">
   <si>
     <t>Module</t>
   </si>
@@ -134,9 +128,6 @@
   </si>
   <si>
     <t>{"status":400,"code":4005,"message":"User not found.","link":"","developerMessage":"}</t>
-  </si>
-  <si>
-    <t>/api/faqs/</t>
   </si>
   <si>
     <t>GET</t>
@@ -548,9 +539,6 @@
     <t>load applicant list by event id</t>
   </si>
   <si>
-    <t>load a applicant detail</t>
-  </si>
-  <si>
     <t>load a event detail</t>
   </si>
   <si>
@@ -597,9 +585,6 @@
     <t>admin/api/event/delete</t>
   </si>
   <si>
-    <t>admin/api/uploadPicture        (not sure)</t>
-  </si>
-  <si>
     <t>admin/api/event/list/{catId}/applicant/update</t>
   </si>
   <si>
@@ -607,12 +592,96 @@
   </si>
   <si>
     <t>admin/api/event/list/{catId}/applicant/list/{eventId}</t>
+  </si>
+  <si>
+    <t>API enpoint (updated)</t>
+  </si>
+  <si>
+    <t>/api/event/{eventid}</t>
+  </si>
+  <si>
+    <t>/api/event/delete</t>
+  </si>
+  <si>
+    <t>load all categories</t>
+  </si>
+  <si>
+    <t>/api/event</t>
+  </si>
+  <si>
+    <t>/api/event/applicant/{applicantid}</t>
+  </si>
+  <si>
+    <t>/api/event/applicant/list/{eventid}</t>
+  </si>
+  <si>
+    <t>/api/event/list/{catid}</t>
+  </si>
+  <si>
+    <t>/api/event/category/list</t>
+  </si>
+  <si>
+    <t>/api/event/applicant</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>apply event</t>
+  </si>
+  <si>
+    <t>list all applications</t>
+  </si>
+  <si>
+    <t>/api/event/applicant/user/list/{userid}</t>
+  </si>
+  <si>
+    <t>/api/event/applicant/user/apply/{userid}/{eventid}</t>
+  </si>
+  <si>
+    <t>cancel an application</t>
+  </si>
+  <si>
+    <t>edit additional info</t>
+  </si>
+  <si>
+    <t>/api/event/applicant/user/cancel/{applicantid}</t>
+  </si>
+  <si>
+    <t>/api/event/applicant/user/edit/{applicantid}</t>
+  </si>
+  <si>
+    <t>additionalInfo object</t>
+  </si>
+  <si>
+    <t>/api/faq/list</t>
+  </si>
+  <si>
+    <t>/api/faq/{faqid}</t>
+  </si>
+  <si>
+    <t>/api/faq</t>
+  </si>
+  <si>
+    <t>/api/faq/keyword/list</t>
+  </si>
+  <si>
+    <t>/api/faq/category</t>
+  </si>
+  <si>
+    <t>/api/faq/keyword</t>
+  </si>
+  <si>
+    <t>admin/api/uploadfile/{type}/{eventid}</t>
+  </si>
+  <si>
+    <t>load an applicant detail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -756,7 +825,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -791,7 +860,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -968,36 +1037,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="57.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="37" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="50.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="57.44140625" customWidth="1"/>
+    <col min="6" max="6" width="45.21875" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="37" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="50.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1014,38 +1084,41 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30">
-      <c r="H2" s="6" t="s">
+    <row r="2" spans="1:12" ht="28.8">
+      <c r="I2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="27" customHeight="1">
+    </row>
+    <row r="3" spans="1:12" ht="27" customHeight="1">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -1056,25 +1129,25 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>9</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>201</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="45">
+    <row r="4" spans="1:12" ht="43.2">
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -1083,19 +1156,19 @@
       <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>200</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30">
+    <row r="5" spans="1:12" ht="28.8">
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -1104,23 +1177,23 @@
       <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>9</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>200</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30">
+    <row r="6" spans="1:12" ht="28.8">
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -1131,25 +1204,25 @@
       <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>7</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>9</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>200</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1158,242 +1231,379 @@
       <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>7</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>9</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" t="s">
         <v>57</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
         <v>59</v>
       </c>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="E14" t="s">
         <v>87</v>
       </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="F14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>119</v>
+      </c>
+      <c r="J17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="28.8">
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" t="s">
         <v>77</v>
       </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" t="s">
+        <v>81</v>
+      </c>
+      <c r="K23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" t="s">
         <v>7</v>
       </c>
-      <c r="H14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14">
+    </row>
+    <row r="25" spans="1:11">
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="C27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" t="s">
+        <v>113</v>
+      </c>
+      <c r="H31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" t="s">
+    <row r="32" spans="1:11">
+      <c r="E32" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="E33" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33" t="s">
         <v>7</v>
       </c>
-      <c r="I16" t="s">
+    </row>
+    <row r="34" spans="1:8">
+      <c r="E34" t="s">
+        <v>115</v>
+      </c>
+      <c r="H34" t="s">
         <v>69</v>
       </c>
-      <c r="J16">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="B17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="B22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="30">
-      <c r="B23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" t="s">
-        <v>83</v>
-      </c>
-      <c r="J23">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" t="s">
+    </row>
+    <row r="35" spans="1:8">
+      <c r="E35" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" t="s">
         <v>36</v>
       </c>
-      <c r="G27" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" t="s">
-        <v>54</v>
-      </c>
-      <c r="J27">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    </row>
+    <row r="36" spans="1:8">
+      <c r="E36" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="E37" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1407,66 +1617,66 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F471E2C-EC65-4E99-ACC1-8CBF8FEF29A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="162.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="162.5546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/api_requests.xlsx
+++ b/api_requests.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unistars\unistars-docs\unistars-docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6840F318-C7ED-4AA8-9529-F3FF43AB669B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API usage" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="132">
   <si>
     <t>Module</t>
   </si>
@@ -470,9 +476,6 @@
     <t>loginWithAccountProvider</t>
   </si>
   <si>
-    <t>loadAll</t>
-  </si>
-  <si>
     <t>All FAQ objects</t>
   </si>
   <si>
@@ -676,12 +679,48 @@
   </si>
   <si>
     <t>load an applicant detail</t>
+  </si>
+  <si>
+    <t>/api/faq/keyword/{keywordid}</t>
+  </si>
+  <si>
+    <t>/api/faq/keyword/delete</t>
+  </si>
+  <si>
+    <t>get keywords</t>
+  </si>
+  <si>
+    <t>save all data</t>
+  </si>
+  <si>
+    <t>create a new keyword</t>
+  </si>
+  <si>
+    <t>update a keyword</t>
+  </si>
+  <si>
+    <t>delete a keyword</t>
+  </si>
+  <si>
+    <t>loadAll FAQ strcuture</t>
+  </si>
+  <si>
+    <t>get FAQ detail</t>
+  </si>
+  <si>
+    <t>create a FAQ</t>
+  </si>
+  <si>
+    <t>update a FAQ</t>
+  </si>
+  <si>
+    <t>Quan|Thien</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1037,34 +1076,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="57.44140625" customWidth="1"/>
-    <col min="6" max="6" width="45.21875" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" customWidth="1"/>
-    <col min="8" max="8" width="24.88671875" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="57.42578125" customWidth="1"/>
+    <col min="6" max="6" width="45.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="37" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" customWidth="1"/>
-    <col min="12" max="12" width="50.5546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="50.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1084,7 +1123,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
         <v>29</v>
@@ -1105,12 +1144,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.8">
+    <row r="2" spans="1:12" ht="30">
       <c r="I2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="27" customHeight="1">
@@ -1145,7 +1184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="43.2">
+    <row r="4" spans="1:12" ht="45">
       <c r="B4" t="s">
         <v>49</v>
       </c>
@@ -1166,7 +1205,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="28.8">
+    <row r="5" spans="1:12" ht="30">
       <c r="B5" t="s">
         <v>50</v>
       </c>
@@ -1193,7 +1232,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="28.8">
+    <row r="6" spans="1:12" ht="30">
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -1246,79 +1285,79 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
         <v>58</v>
       </c>
-      <c r="D12" t="s">
-        <v>59</v>
-      </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
         <v>62</v>
       </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s">
         <v>7</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K14">
         <v>200</v>
@@ -1326,25 +1365,25 @@
     </row>
     <row r="15" spans="1:12">
       <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
         <v>64</v>
       </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K15">
         <v>200</v>
@@ -1352,25 +1391,25 @@
     </row>
     <row r="16" spans="1:12">
       <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
         <v>66</v>
       </c>
-      <c r="C16" t="s">
-        <v>67</v>
-      </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H16" t="s">
         <v>7</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K16">
         <v>200</v>
@@ -1378,93 +1417,93 @@
     </row>
     <row r="17" spans="1:11">
       <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" t="s">
         <v>83</v>
-      </c>
-      <c r="C17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" t="s">
-        <v>119</v>
-      </c>
-      <c r="J17" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="B21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
       </c>
       <c r="J21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="B22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
       </c>
       <c r="J22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="28.8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="30">
       <c r="B23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" t="s">
         <v>76</v>
       </c>
-      <c r="D23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" t="s">
-        <v>77</v>
-      </c>
       <c r="H23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K23">
         <v>200</v>
@@ -1472,13 +1511,13 @@
     </row>
     <row r="24" spans="1:11">
       <c r="C24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H24" t="s">
         <v>7</v>
@@ -1486,13 +1525,13 @@
     </row>
     <row r="25" spans="1:11">
       <c r="C25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" t="s">
         <v>105</v>
-      </c>
-      <c r="D25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" t="s">
-        <v>106</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -1500,13 +1539,13 @@
     </row>
     <row r="26" spans="1:11">
       <c r="C26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H26" t="s">
         <v>7</v>
@@ -1514,19 +1553,19 @@
     </row>
     <row r="27" spans="1:11">
       <c r="C27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" t="s">
         <v>111</v>
       </c>
-      <c r="G27" t="s">
-        <v>112</v>
-      </c>
       <c r="H27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1536,69 +1575,133 @@
     </row>
     <row r="31" spans="1:11">
       <c r="B31" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
       </c>
       <c r="J31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K31">
         <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:11">
+      <c r="B32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H32" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:8">
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:8">
+      <c r="B34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
       <c r="E34" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
         <v>115</v>
-      </c>
-      <c r="H34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="E35" t="s">
-        <v>116</v>
       </c>
       <c r="H35" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:8">
+      <c r="B36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
       <c r="E36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H36" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:8">
+      <c r="B37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
       <c r="E37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="B38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>120</v>
+      </c>
+      <c r="H38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="B39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1617,16 +1720,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="162.5546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="162.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
